--- a/qabible-test/target/test-classes/qatestdata.xlsx
+++ b/qabible-test/target/test-classes/qatestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E5F5B1-70D2-4DA3-825C-A4C32C0470FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B845B-249B-4028-ABCF-9E8938701969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Kavya90</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -100,13 +103,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,57 +468,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/qabible-test/target/test-classes/qatestdata.xlsx
+++ b/qabible-test/target/test-classes/qatestdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabar\Desktop\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -52,13 +52,23 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,10 +486,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="13.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="11.90625" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -500,6 +510,9 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -508,6 +521,9 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -516,6 +532,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -523,6 +542,9 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>

--- a/qabible-test/target/test-classes/qatestdata.xlsx
+++ b/qabible-test/target/test-classes/qatestdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>

--- a/qabible-test/target/test-classes/qatestdata.xlsx
+++ b/qabible-test/target/test-classes/qatestdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>

--- a/qabible-test/target/test-classes/qatestdata.xlsx
+++ b/qabible-test/target/test-classes/qatestdata.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B845B-249B-4028-ABCF-9E8938701969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F990B62B-4A2C-4645-985B-50F930B5C226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -49,26 +49,13 @@
   </si>
   <si>
     <t>Kavya90</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,12 +67,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,21 +110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -190,14 +156,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,86 +441,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F37E4B-12A9-4257-B8AE-C3FD4802F4C6}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="13.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="11.90625" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>